--- a/SchedulingData/dynamic13/pso/scheduling2_10.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_10.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>237.58</v>
+        <v>238.26</v>
       </c>
       <c r="D2" t="n">
-        <v>295.32</v>
+        <v>315.16</v>
       </c>
       <c r="E2" t="n">
-        <v>10.628</v>
+        <v>13.584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>216.54</v>
+        <v>231.84</v>
       </c>
       <c r="D3" t="n">
-        <v>267.6</v>
+        <v>309.44</v>
       </c>
       <c r="E3" t="n">
-        <v>12.42</v>
+        <v>12.216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>295.32</v>
+        <v>315.16</v>
       </c>
       <c r="D4" t="n">
-        <v>347.22</v>
+        <v>360.46</v>
       </c>
       <c r="E4" t="n">
-        <v>7.548</v>
+        <v>11.184</v>
       </c>
     </row>
     <row r="5">
@@ -523,169 +523,169 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>214.86</v>
+        <v>233.36</v>
       </c>
       <c r="D5" t="n">
-        <v>267.56</v>
+        <v>300.48</v>
       </c>
       <c r="E5" t="n">
-        <v>15.204</v>
+        <v>13.572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>267.6</v>
+        <v>217.1</v>
       </c>
       <c r="D6" t="n">
-        <v>341.06</v>
+        <v>274.74</v>
       </c>
       <c r="E6" t="n">
-        <v>8.164</v>
+        <v>15.436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>341.06</v>
+        <v>300.48</v>
       </c>
       <c r="D7" t="n">
-        <v>404.38</v>
+        <v>354.68</v>
       </c>
       <c r="E7" t="n">
-        <v>4.972</v>
+        <v>10.272</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>209.3</v>
+        <v>309.44</v>
       </c>
       <c r="D8" t="n">
-        <v>255.96</v>
+        <v>374.94</v>
       </c>
       <c r="E8" t="n">
-        <v>14.084</v>
+        <v>7.796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>404.38</v>
+        <v>374.94</v>
       </c>
       <c r="D9" t="n">
-        <v>459.04</v>
+        <v>417.14</v>
       </c>
       <c r="E9" t="n">
-        <v>2.596</v>
+        <v>5.716</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>459.04</v>
+        <v>200.3</v>
       </c>
       <c r="D10" t="n">
-        <v>504.34</v>
+        <v>255.4</v>
       </c>
       <c r="E10" t="n">
-        <v>0.196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>504.34</v>
+        <v>274.74</v>
       </c>
       <c r="D11" t="n">
-        <v>595.45</v>
+        <v>335.66</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>10.964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>213.32</v>
+        <v>255.4</v>
       </c>
       <c r="D12" t="n">
-        <v>278.64</v>
+        <v>298.94</v>
       </c>
       <c r="E12" t="n">
-        <v>17.096</v>
+        <v>12.776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>255.96</v>
+        <v>244.24</v>
       </c>
       <c r="D13" t="n">
-        <v>311.42</v>
+        <v>303.3</v>
       </c>
       <c r="E13" t="n">
-        <v>10.668</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="14">
@@ -694,36 +694,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>278.64</v>
+        <v>417.14</v>
       </c>
       <c r="D14" t="n">
-        <v>345.44</v>
+        <v>452.64</v>
       </c>
       <c r="E14" t="n">
-        <v>13.016</v>
+        <v>3.296</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>267.56</v>
+        <v>452.64</v>
       </c>
       <c r="D15" t="n">
-        <v>349.16</v>
+        <v>532.76</v>
       </c>
       <c r="E15" t="n">
-        <v>11.124</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="16">
@@ -732,74 +732,74 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>345.44</v>
+        <v>532.76</v>
       </c>
       <c r="D16" t="n">
-        <v>402.54</v>
+        <v>618.79</v>
       </c>
       <c r="E16" t="n">
-        <v>10.936</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>228.12</v>
+        <v>303.3</v>
       </c>
       <c r="D17" t="n">
-        <v>261.88</v>
+        <v>360.1</v>
       </c>
       <c r="E17" t="n">
-        <v>13.532</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>349.16</v>
+        <v>298.94</v>
       </c>
       <c r="D18" t="n">
-        <v>384.22</v>
+        <v>366.34</v>
       </c>
       <c r="E18" t="n">
-        <v>8.747999999999999</v>
+        <v>9.656000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>311.42</v>
+        <v>366.34</v>
       </c>
       <c r="D19" t="n">
-        <v>370.4</v>
+        <v>414.04</v>
       </c>
       <c r="E19" t="n">
-        <v>7.86</v>
+        <v>6.016</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>370.4</v>
+        <v>360.46</v>
       </c>
       <c r="D20" t="n">
-        <v>440.2</v>
+        <v>402.12</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>8.148</v>
       </c>
     </row>
     <row r="21">
@@ -827,280 +827,280 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>384.22</v>
+        <v>354.68</v>
       </c>
       <c r="D21" t="n">
-        <v>427.22</v>
+        <v>404.38</v>
       </c>
       <c r="E21" t="n">
-        <v>6.588</v>
+        <v>6.432</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>347.22</v>
+        <v>360.1</v>
       </c>
       <c r="D22" t="n">
-        <v>408.04</v>
+        <v>411.08</v>
       </c>
       <c r="E22" t="n">
-        <v>3.596</v>
+        <v>4.752</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>427.22</v>
+        <v>335.66</v>
       </c>
       <c r="D23" t="n">
-        <v>467.28</v>
+        <v>381.08</v>
       </c>
       <c r="E23" t="n">
-        <v>4.212</v>
+        <v>8.052</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>402.54</v>
+        <v>404.38</v>
       </c>
       <c r="D24" t="n">
-        <v>438.04</v>
+        <v>463.44</v>
       </c>
       <c r="E24" t="n">
-        <v>8.516</v>
+        <v>2.636</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>438.04</v>
+        <v>402.12</v>
       </c>
       <c r="D25" t="n">
-        <v>501.3</v>
+        <v>463.8</v>
       </c>
       <c r="E25" t="n">
-        <v>4.82</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>261.88</v>
+        <v>411.08</v>
       </c>
       <c r="D26" t="n">
-        <v>327.76</v>
+        <v>454.3</v>
       </c>
       <c r="E26" t="n">
-        <v>10.564</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>467.28</v>
+        <v>454.3</v>
       </c>
       <c r="D27" t="n">
-        <v>520.48</v>
+        <v>533.08</v>
       </c>
       <c r="E27" t="n">
-        <v>1.032</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>520.48</v>
+        <v>463.8</v>
       </c>
       <c r="D28" t="n">
-        <v>585.42</v>
+        <v>501.5</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>585.42</v>
+        <v>618.79</v>
       </c>
       <c r="D29" t="n">
-        <v>625.54</v>
+        <v>686.6900000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>27.668</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>501.3</v>
+        <v>381.08</v>
       </c>
       <c r="D30" t="n">
-        <v>545.6</v>
+        <v>445.16</v>
       </c>
       <c r="E30" t="n">
-        <v>1.52</v>
+        <v>5.244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>545.6</v>
+        <v>414.04</v>
       </c>
       <c r="D31" t="n">
-        <v>629.16</v>
+        <v>468.7</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>327.76</v>
+        <v>468.7</v>
       </c>
       <c r="D32" t="n">
-        <v>374.76</v>
+        <v>503.18</v>
       </c>
       <c r="E32" t="n">
-        <v>7.484</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>374.76</v>
+        <v>503.18</v>
       </c>
       <c r="D33" t="n">
-        <v>439.74</v>
+        <v>573.42</v>
       </c>
       <c r="E33" t="n">
-        <v>4.096</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>408.04</v>
+        <v>501.5</v>
       </c>
       <c r="D34" t="n">
-        <v>452.62</v>
+        <v>536.12</v>
       </c>
       <c r="E34" t="n">
-        <v>0.268</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>452.62</v>
+        <v>536.12</v>
       </c>
       <c r="D35" t="n">
-        <v>558.58</v>
+        <v>612.7</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>595.45</v>
+        <v>533.08</v>
       </c>
       <c r="D36" t="n">
-        <v>660.37</v>
+        <v>598</v>
       </c>
       <c r="E36" t="n">
         <v>27.668</v>
@@ -1127,154 +1127,154 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>439.74</v>
+        <v>573.42</v>
       </c>
       <c r="D37" t="n">
-        <v>517.22</v>
+        <v>624.98</v>
       </c>
       <c r="E37" t="n">
-        <v>0.448</v>
+        <v>27.504</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>517.22</v>
+        <v>598</v>
       </c>
       <c r="D38" t="n">
-        <v>608.02</v>
+        <v>672.8</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>24.808</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>608.02</v>
+        <v>463.44</v>
       </c>
       <c r="D39" t="n">
-        <v>643.1</v>
+        <v>496.34</v>
       </c>
       <c r="E39" t="n">
-        <v>27.192</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>558.58</v>
+        <v>496.34</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3</v>
+        <v>567.29</v>
       </c>
       <c r="E40" t="n">
-        <v>27.088</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>614.3</v>
+        <v>567.29</v>
       </c>
       <c r="D41" t="n">
-        <v>661.1799999999999</v>
+        <v>608.05</v>
       </c>
       <c r="E41" t="n">
-        <v>24.02</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>440.2</v>
+        <v>608.05</v>
       </c>
       <c r="D42" t="n">
-        <v>497.52</v>
+        <v>661.25</v>
       </c>
       <c r="E42" t="n">
-        <v>2.408</v>
+        <v>24.444</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>660.37</v>
+        <v>661.25</v>
       </c>
       <c r="D43" t="n">
-        <v>711.73</v>
+        <v>695.73</v>
       </c>
       <c r="E43" t="n">
-        <v>25.172</v>
+        <v>21.636</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>629.16</v>
+        <v>624.98</v>
       </c>
       <c r="D44" t="n">
-        <v>669.14</v>
+        <v>669.9400000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>27.192</v>
+        <v>25.128</v>
       </c>
     </row>
   </sheetData>
